--- a/res/宝物.xlsx
+++ b/res/宝物.xlsx
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2734,7 +2734,7 @@
         <v>163</v>
       </c>
       <c r="Z22" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA22" s="8" t="s">
         <v>169</v>
@@ -3434,7 +3434,7 @@
         <v>200</v>
       </c>
       <c r="Z38" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA38" s="8" t="s">
         <v>169</v>

--- a/res/宝物.xlsx
+++ b/res/宝物.xlsx
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA52" sqref="AA52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z58" sqref="Z58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1919,11 +1919,11 @@
     <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="4" customWidth="1"/>
-    <col min="8" max="15" width="5.875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="5.875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="8" hidden="1" customWidth="1"/>
     <col min="17" max="20" width="10.125" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.625" style="8" customWidth="1"/>
     <col min="22" max="22" width="11.75" style="9" customWidth="1"/>
@@ -4273,7 +4273,7 @@
         <v>204</v>
       </c>
       <c r="Z58" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8" t="s">
         <v>205</v>

--- a/res/宝物.xlsx
+++ b/res/宝物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="314">
   <si>
     <t>先祖护身符</t>
   </si>
@@ -1225,10 +1225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击,生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附带每回合千年花毒,6点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1397,39 +1393,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愤怒x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇蝎x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避x</t>
+    <t>攻击,护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到[亡灵]攻击时，少受6点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO87"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1919,11 +1923,11 @@
     <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="5.875" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="8" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="4" customWidth="1"/>
+    <col min="8" max="15" width="5.875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="8" customWidth="1"/>
     <col min="17" max="20" width="10.125" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.625" style="8" customWidth="1"/>
     <col min="22" max="22" width="11.75" style="9" customWidth="1"/>
@@ -1996,13 +2000,13 @@
         <v>128</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>224</v>
@@ -2014,10 +2018,10 @@
         <v>248</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="16" t="s">
         <v>166</v>
@@ -2029,7 +2033,7 @@
         <v>98</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD1" s="13" t="s">
         <v>237</v>
@@ -2059,7 +2063,7 @@
         <v>245</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN1" s="13" t="s">
         <v>210</v>
@@ -2097,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>178</v>
@@ -2122,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>178</v>
@@ -2147,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>178</v>
@@ -2172,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>178</v>
@@ -2197,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>178</v>
@@ -2222,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>178</v>
@@ -2247,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>178</v>
@@ -2272,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>178</v>
@@ -2342,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>253</v>
@@ -2538,7 +2542,7 @@
         <v>193</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z17" s="9">
         <v>3</v>
@@ -2579,7 +2583,7 @@
         <v>92</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z18" s="9">
         <v>2</v>
@@ -2661,7 +2665,7 @@
         <v>211</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>160</v>
@@ -2890,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V26" s="9" t="s">
         <v>226</v>
@@ -3005,7 +3009,7 @@
         <v>254</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X28" s="9" t="s">
         <v>183</v>
@@ -3048,7 +3052,7 @@
         <v>214</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>180</v>
@@ -3179,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W32" s="9" t="s">
         <v>252</v>
@@ -3388,7 +3392,7 @@
         <v>168</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z37" s="9">
         <v>0</v>
@@ -3422,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V38" s="9" t="s">
         <v>228</v>
@@ -3434,7 +3438,7 @@
         <v>200</v>
       </c>
       <c r="Z38" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA38" s="8" t="s">
         <v>169</v>
@@ -3587,7 +3591,7 @@
         <v>92</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z42" s="9">
         <v>10</v>
@@ -3665,7 +3669,7 @@
         <v>10</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V44" s="9" t="s">
         <v>250</v>
@@ -3713,7 +3717,7 @@
         <v>211</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>179</v>
@@ -3830,7 +3834,7 @@
         <v>223</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG48" s="3">
         <v>1</v>
@@ -3905,7 +3909,7 @@
         <v>211</v>
       </c>
       <c r="X50" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>180</v>
@@ -3941,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="V51" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X51" s="9" t="s">
         <v>163</v>
@@ -3984,7 +3988,7 @@
         <v>10</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -4306,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="V59" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN59" s="3">
         <v>1</v>
@@ -4418,7 +4422,7 @@
         <v>193</v>
       </c>
       <c r="X62" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z62" s="9">
         <v>3</v>
@@ -4454,7 +4458,7 @@
         <v>225</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG63" s="3">
         <v>1</v>
@@ -4487,7 +4491,7 @@
         <v>50</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z64" s="9">
         <v>200</v>
@@ -4537,7 +4541,7 @@
         <v>133</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" ref="Q66:Q87" si="2">IF(AB66,1,IF(AC66,2,IF(AD66,3,IF(AE66,4,IF(AF66,5,IF(AG66,6,IF(AH66,7,IF(AI66,8,IF(AJ66,9,IF(AK66,10,IF(AL66,11,IF(AM66,12,IF(AN66,13,IF(AO66,14,-1))))))))))))))</f>
+        <f t="shared" ref="Q66:Q88" si="2">IF(AB66,1,IF(AC66,2,IF(AD66,3,IF(AE66,4,IF(AF66,5,IF(AG66,6,IF(AH66,7,IF(AI66,8,IF(AJ66,9,IF(AK66,10,IF(AL66,11,IF(AM66,12,IF(AN66,13,IF(AO66,14,-1))))))))))))))</f>
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
@@ -4547,7 +4551,7 @@
         <v>211</v>
       </c>
       <c r="X66" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z66" s="9">
         <v>20</v>
@@ -4694,10 +4698,10 @@
         <v>259</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X70" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z70" s="9">
         <v>2</v>
@@ -4733,7 +4737,7 @@
         <v>249</v>
       </c>
       <c r="X71" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z71" s="9" t="s">
         <v>260</v>
@@ -4763,10 +4767,10 @@
         <v>10</v>
       </c>
       <c r="R72" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V72" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X72" s="9" t="s">
         <v>159</v>
@@ -4806,7 +4810,7 @@
         <v>212</v>
       </c>
       <c r="Z73" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB73" s="3">
         <v>1</v>
@@ -4833,7 +4837,7 @@
         <v>5</v>
       </c>
       <c r="V74" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W74" s="9" t="s">
         <v>258</v>
@@ -4869,7 +4873,7 @@
         <v>259</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="X75" s="9" t="s">
         <v>176</v>
@@ -4941,7 +4945,7 @@
         <v>212</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB77" s="3">
         <v>1</v>
@@ -5071,7 +5075,7 @@
         <v>212</v>
       </c>
       <c r="Z80" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB80" s="3">
         <v>1</v>
@@ -5085,7 +5089,7 @@
         <v>175</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -5098,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V81" s="9" t="s">
         <v>254</v>
@@ -5170,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X83" s="9" t="s">
         <v>159</v>
@@ -5223,10 +5227,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -5239,10 +5243,10 @@
         <v>4</v>
       </c>
       <c r="V85" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="W85" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="W85" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="AE85" s="3">
         <v>1</v>
@@ -5253,10 +5257,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5292,10 +5296,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -5308,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X87" s="9" t="s">
         <v>159</v>
@@ -5317,6 +5321,46 @@
         <v>20</v>
       </c>
       <c r="AJ87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="N88" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R88" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="V88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="W88" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z88" s="9">
+        <v>6</v>
+      </c>
+      <c r="AH88" s="3">
         <v>1</v>
       </c>
     </row>

--- a/res/宝物.xlsx
+++ b/res/宝物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="316">
   <si>
     <t>先祖护身符</t>
   </si>
@@ -721,10 +721,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>秃鹫戒指</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>仙人掌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1434,6 +1430,17 @@
   </si>
   <si>
     <t>亡灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秃鹰戒指</t>
+  </si>
+  <si>
+    <t>鬼头杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次击杀敌人，使所有敌人中毒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1923,11 +1930,11 @@
     <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="4" customWidth="1"/>
-    <col min="8" max="15" width="5.875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="5.875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="8" hidden="1" customWidth="1"/>
     <col min="17" max="20" width="10.125" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.625" style="8" customWidth="1"/>
     <col min="22" max="22" width="11.75" style="9" customWidth="1"/>
@@ -2000,76 +2007,76 @@
         <v>128</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>269</v>
-      </c>
       <c r="Z1" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>98</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO1" s="18" t="s">
         <v>245</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
@@ -2077,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -2104,7 +2111,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2129,7 +2136,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2151,10 +2158,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2176,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -2201,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2226,10 +2233,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -2251,10 +2258,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2276,10 +2283,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2346,13 +2353,13 @@
         <v>3</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="9">
         <v>3</v>
@@ -2387,19 +2394,19 @@
         <v>5</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="9">
         <v>2</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD13" s="6"/>
       <c r="AF13" s="3">
@@ -2431,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z14" s="9">
         <v>3</v>
@@ -2492,13 +2499,13 @@
         <v>2</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z16" s="9">
         <v>5</v>
@@ -2536,13 +2543,13 @@
         <v>1</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z17" s="9">
         <v>3</v>
@@ -2577,19 +2584,19 @@
         <v>5</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W18" s="9" t="s">
         <v>92</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z18" s="9">
         <v>2</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD18" s="6"/>
       <c r="AF18" s="3">
@@ -2624,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z19" s="9">
         <v>20</v>
@@ -2659,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z20" s="9">
         <v>5</v>
@@ -2726,22 +2733,22 @@
         <v>5</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z22" s="9">
         <v>6</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD22" s="6"/>
       <c r="AF22" s="3">
@@ -2779,19 +2786,19 @@
         <v>1</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z23" s="9">
         <v>2</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD23" s="6"/>
       <c r="AG23" s="3">
@@ -2857,13 +2864,13 @@
         <v>1</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z25" s="9">
         <v>20</v>
@@ -2894,13 +2901,13 @@
         <v>7</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z26" s="9">
         <v>6</v>
@@ -2949,20 +2956,20 @@
       <c r="T27" s="9"/>
       <c r="U27" s="8"/>
       <c r="V27" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9">
         <v>0</v>
       </c>
       <c r="AA27" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -3006,19 +3013,19 @@
         <v>5</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z28" s="9">
         <v>5</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF28" s="3">
         <v>1</v>
@@ -3046,22 +3053,22 @@
         <v>3</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z29" s="9">
         <v>0</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD29" s="3">
         <v>1</v>
@@ -3098,19 +3105,19 @@
         <v>30</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z30" s="9">
         <v>5</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI30" s="3">
         <v>1</v>
@@ -3141,19 +3148,19 @@
         <v>8</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z31" s="9">
         <v>0</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI31" s="3">
         <v>1</v>
@@ -3183,13 +3190,13 @@
         <v>7</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z32" s="9">
         <v>3</v>
@@ -3229,19 +3236,19 @@
         <v>1</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z33" s="9">
         <v>5</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG33" s="3">
         <v>1</v>
@@ -3272,16 +3279,16 @@
         <v>30</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z34" s="9">
         <v>2</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI34" s="3">
         <v>1</v>
@@ -3312,13 +3319,13 @@
         <v>5</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z35" s="9">
         <v>10</v>
@@ -3355,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z36" s="9">
         <v>3</v>
@@ -3386,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z37" s="9">
         <v>0</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI37" s="3">
         <v>1</v>
@@ -3426,22 +3433,22 @@
         <v>8</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z38" s="9">
         <v>5</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI38" s="3">
         <v>1</v>
@@ -3468,13 +3475,13 @@
         <v>5</v>
       </c>
       <c r="V39" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="W39" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="W39" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="X39" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z39" s="9">
         <v>5</v>
@@ -3488,10 +3495,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -3500,20 +3507,20 @@
         <v>133</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W40" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z40" s="9">
         <v>10</v>
@@ -3549,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z41" s="9">
         <v>12</v>
@@ -3582,16 +3589,16 @@
         <v>5</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W42" s="9" t="s">
         <v>92</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z42" s="9">
         <v>10</v>
@@ -3627,19 +3634,19 @@
         <v>8</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z43" s="9">
         <v>0</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI43" s="3">
         <v>1</v>
@@ -3669,16 +3676,16 @@
         <v>10</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z44" s="9">
         <v>2</v>
@@ -3711,16 +3718,16 @@
         <v>1</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z45" s="9">
         <v>5</v>
@@ -3753,13 +3760,13 @@
         <v>7</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z46" s="9">
         <v>6</v>
@@ -3792,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z47" s="9">
         <v>6</v>
@@ -3831,10 +3838,10 @@
         <v>1</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" s="3">
         <v>1</v>
@@ -3848,7 +3855,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -3867,13 +3874,13 @@
         <v>1</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W49" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X49" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z49" s="9">
         <v>3</v>
@@ -3903,16 +3910,16 @@
         <v>2</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W50" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X50" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y50" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z50" s="9">
         <v>5</v>
@@ -3945,10 +3952,10 @@
         <v>5</v>
       </c>
       <c r="V51" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF51" s="3">
         <v>1</v>
@@ -3988,19 +3995,19 @@
         <v>10</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="8"/>
       <c r="V52" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W52" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9">
@@ -4051,13 +4058,13 @@
         <v>50</v>
       </c>
       <c r="V53" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="W53" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="W53" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="X53" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z53" s="9">
         <v>3</v>
@@ -4090,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U54" s="8">
         <v>30</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z54" s="9">
         <v>3</v>
@@ -4138,19 +4145,19 @@
         <v>30</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X55" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z55" s="9">
         <v>2</v>
       </c>
       <c r="AA55" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI55" s="3">
         <v>1</v>
@@ -4183,19 +4190,19 @@
         <v>11</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W56" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z56" s="9">
         <v>2</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL56" s="3">
         <v>1</v>
@@ -4226,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="V57" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W57" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="X57" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="X57" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="Z57" s="9">
         <v>0</v>
       </c>
       <c r="AA57" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI57" s="3">
         <v>1</v>
@@ -4268,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="V58" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W58" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X58" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z58" s="9">
         <v>0</v>
       </c>
       <c r="AA58" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI58" s="3">
         <v>1</v>
@@ -4310,7 +4317,7 @@
         <v>13</v>
       </c>
       <c r="V59" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AN59" s="3">
         <v>1</v>
@@ -4338,16 +4345,16 @@
         <v>5</v>
       </c>
       <c r="V60" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X60" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z60" s="9">
         <v>2</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF60" s="3">
         <v>1</v>
@@ -4374,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V61" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W61" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X61" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z61" s="9">
         <v>5</v>
@@ -4400,7 +4407,7 @@
         <v>78</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -4416,13 +4423,13 @@
         <v>1</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W62" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X62" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z62" s="9">
         <v>3</v>
@@ -4455,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="V63" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG63" s="3">
         <v>1</v>
@@ -4491,7 +4498,7 @@
         <v>50</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z64" s="9">
         <v>200</v>
@@ -4532,7 +4539,7 @@
         <v>116</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -4541,17 +4548,17 @@
         <v>133</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" ref="Q66:Q88" si="2">IF(AB66,1,IF(AC66,2,IF(AD66,3,IF(AE66,4,IF(AF66,5,IF(AG66,6,IF(AH66,7,IF(AI66,8,IF(AJ66,9,IF(AK66,10,IF(AL66,11,IF(AM66,12,IF(AN66,13,IF(AO66,14,-1))))))))))))))</f>
+        <f t="shared" ref="Q66:Q89" si="2">IF(AB66,1,IF(AC66,2,IF(AD66,3,IF(AE66,4,IF(AF66,5,IF(AG66,6,IF(AH66,7,IF(AI66,8,IF(AJ66,9,IF(AK66,10,IF(AL66,11,IF(AM66,12,IF(AN66,13,IF(AO66,14,-1))))))))))))))</f>
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W66" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X66" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z66" s="9">
         <v>20</v>
@@ -4581,19 +4588,19 @@
         <v>5</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W67" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X67" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z67" s="9">
         <v>50</v>
       </c>
       <c r="AA67" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF67" s="3">
         <v>1</v>
@@ -4620,13 +4627,13 @@
         <v>12</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W68" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X68" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z68" s="9">
         <v>3</v>
@@ -4656,19 +4663,19 @@
         <v>9</v>
       </c>
       <c r="V69" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W69" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X69" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z69" s="9">
         <v>6</v>
       </c>
       <c r="AA69" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AJ69" s="3">
         <v>1</v>
@@ -4695,13 +4702,13 @@
         <v>1</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X70" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z70" s="9">
         <v>2</v>
@@ -4731,16 +4738,16 @@
         <v>1</v>
       </c>
       <c r="V71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W71" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="X71" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z71" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="W71" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="X71" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z71" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="AB71" s="3">
         <v>1</v>
@@ -4767,13 +4774,13 @@
         <v>10</v>
       </c>
       <c r="R72" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V72" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X72" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y72" s="23"/>
       <c r="Z72" s="9">
@@ -4807,10 +4814,10 @@
         <v>2</v>
       </c>
       <c r="V73" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z73" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB73" s="3">
         <v>1</v>
@@ -4821,10 +4828,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -4837,13 +4844,13 @@
         <v>5</v>
       </c>
       <c r="V74" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W74" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X74" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF74" s="3">
         <v>1</v>
@@ -4854,10 +4861,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -4870,13 +4877,13 @@
         <v>1</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z75" s="9">
         <v>2</v>
@@ -4890,10 +4897,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -4909,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="V76" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z76" s="9">
         <v>3</v>
@@ -4923,10 +4930,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -4942,10 +4949,10 @@
         <v>2</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB77" s="3">
         <v>1</v>
@@ -4956,10 +4963,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -4975,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="V78" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z78" s="9">
         <v>1</v>
@@ -4989,10 +4996,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4">
@@ -5022,7 +5029,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="8"/>
       <c r="V79" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -5053,10 +5060,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -5072,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="V80" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z80" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB80" s="3">
         <v>1</v>
@@ -5086,10 +5093,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -5102,16 +5109,16 @@
         <v>1</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V81" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X81" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z81" s="9">
         <v>6</v>
@@ -5125,10 +5132,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -5144,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z82" s="9">
         <v>47</v>
@@ -5158,10 +5165,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -5174,10 +5181,10 @@
         <v>9</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X83" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z83" s="9">
         <v>65</v>
@@ -5191,10 +5198,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -5207,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="V84" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X84" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z84" s="9">
         <v>15</v>
@@ -5227,10 +5234,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -5243,10 +5250,10 @@
         <v>4</v>
       </c>
       <c r="V85" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="W85" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="W85" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="AE85" s="3">
         <v>1</v>
@@ -5257,10 +5264,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5273,19 +5280,19 @@
         <v>5</v>
       </c>
       <c r="V86" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W86" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X86" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z86" s="9">
         <v>68</v>
       </c>
       <c r="AA86" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF86" s="3">
         <v>1</v>
@@ -5296,10 +5303,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>301</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -5312,10 +5319,10 @@
         <v>9</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X87" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z87" s="9">
         <v>20</v>
@@ -5329,10 +5336,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>312</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -5349,18 +5356,67 @@
         <v>7</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V88" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W88" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z88" s="9">
         <v>6</v>
       </c>
       <c r="AH88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6">
+        <v>2</v>
+      </c>
+      <c r="O89" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="S89" s="9">
+        <v>1</v>
+      </c>
+      <c r="V89" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="W89" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="X89" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z89" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG89" s="3">
         <v>1</v>
       </c>
     </row>

--- a/res/宝物.xlsx
+++ b/res/宝物.xlsx
@@ -1385,10 +1385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吸血68%(近似)伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击,护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1441,6 +1437,10 @@
   </si>
   <si>
     <t>每次击杀敌人，使所有敌人中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血54%(近似)伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,20 +1921,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X89" sqref="X89"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="5.875" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="59.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="4" customWidth="1"/>
+    <col min="8" max="15" width="5.875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="8" customWidth="1"/>
     <col min="17" max="20" width="10.125" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.625" style="8" customWidth="1"/>
     <col min="22" max="22" width="11.75" style="9" customWidth="1"/>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>176</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="9">
-        <f t="shared" ref="Q2:Q33" si="0">IF(AB2,1,IF(AC2,2,IF(AD2,3,IF(AE2,4,IF(AF2,5,IF(AG2,6,IF(AH2,7,IF(AI2,8,IF(AJ2,9,IF(AK2,10,IF(AL2,11,IF(AM2,12,IF(AN2,13,IF(AO2,14,-1))))))))))))))</f>
+        <f t="shared" ref="Q2:Q11" si="0">IF(AB2,1,IF(AC2,2,IF(AD2,3,IF(AE2,4,IF(AF2,5,IF(AG2,6,IF(AH2,7,IF(AI2,8,IF(AJ2,9,IF(AK2,10,IF(AL2,11,IF(AM2,12,IF(AN2,13,IF(AO2,14,-1))))))))))))))</f>
         <v>-1</v>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>177</v>
@@ -2183,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>177</v>
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>177</v>
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>177</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>177</v>
@@ -2283,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>177</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="H12" s="5"/>
       <c r="Q12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q12:Q43" si="1">IF(AB12,1,IF(AC12,2,IF(AD12,3,IF(AE12,4,IF(AF12,5,IF(AG12,6,IF(AH12,7,IF(AI12,8,IF(AJ12,9,IF(AK12,10,IF(AL12,11,IF(AM12,12,IF(AN12,13,IF(AO12,14,-1))))))))))))))</f>
         <v>6</v>
       </c>
       <c r="S12" s="9">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V13" s="9" t="s">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H14" s="5"/>
       <c r="Q14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S14" s="9">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="H15" s="5"/>
       <c r="Q15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="AD15" s="6"/>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="Q16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V16" s="9" t="s">
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S17" s="9">
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V18" s="9" t="s">
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S19" s="9">
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V20" s="9" t="s">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="AD21" s="6"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H22" s="5"/>
       <c r="Q22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R22" s="9" t="s">
@@ -2779,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S23" s="9">
@@ -2832,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="H25" s="5"/>
       <c r="Q25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S25" s="9">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H26" s="5"/>
       <c r="Q26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R26" s="9" t="s">
@@ -2948,7 +2948,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R27" s="9"/>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V28" s="9" t="s">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H29" s="5"/>
       <c r="Q29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V29" s="9" t="s">
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="U30" s="8">
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V31" s="9" t="s">
@@ -3186,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R32" s="9" t="s">
@@ -3229,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="H34" s="5"/>
       <c r="Q34" s="9">
-        <f t="shared" ref="Q34:Q65" si="1">IF(AB34,1,IF(AC34,2,IF(AD34,3,IF(AE34,4,IF(AF34,5,IF(AG34,6,IF(AH34,7,IF(AI34,8,IF(AJ34,9,IF(AK34,10,IF(AL34,11,IF(AM34,12,IF(AN34,13,IF(AO34,14,-1))))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="U34" s="8">
@@ -3484,7 +3484,7 @@
         <v>199</v>
       </c>
       <c r="Z39" s="9">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AF39" s="3">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>208</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q44:Q75" si="2">IF(AB44,1,IF(AC44,2,IF(AD44,3,IF(AE44,4,IF(AF44,5,IF(AG44,6,IF(AH44,7,IF(AI44,8,IF(AJ44,9,IF(AK44,10,IF(AL44,11,IF(AM44,12,IF(AN44,13,IF(AO44,14,-1))))))))))))))</f>
         <v>10</v>
       </c>
       <c r="R44" s="9" t="s">
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V45" s="9" t="s">
@@ -3756,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R46" s="9" t="s">
@@ -3792,7 +3792,7 @@
         <v>133</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S47" s="9">
@@ -3831,7 +3831,7 @@
         <v>133</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S48" s="9">
@@ -3867,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S49" s="9">
@@ -3906,7 +3906,7 @@
         <v>133</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V50" s="9" t="s">
@@ -3948,7 +3948,7 @@
         <v>-5</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V51" s="9" t="s">
@@ -3991,7 +3991,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R52" s="9" t="s">
@@ -4048,7 +4048,7 @@
         <v>133</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S53" s="9">
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R54" s="9" t="s">
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="U55" s="8">
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="V56" s="9" t="s">
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V57" s="9" t="s">
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V58" s="9" t="s">
@@ -4313,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="V59" s="9" t="s">
@@ -4341,7 +4341,7 @@
         <v>133</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V60" s="9" t="s">
@@ -4377,7 +4377,7 @@
         <v>133</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R61" s="9" t="s">
@@ -4416,7 +4416,7 @@
         <v>133</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S62" s="9">
@@ -4455,7 +4455,7 @@
         <v>133</v>
       </c>
       <c r="Q63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S63" s="9">
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="Q64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="U64" s="8">
@@ -4527,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="Q65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
         <v>133</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" ref="Q66:Q89" si="2">IF(AB66,1,IF(AC66,2,IF(AD66,3,IF(AE66,4,IF(AF66,5,IF(AG66,6,IF(AH66,7,IF(AI66,8,IF(AJ66,9,IF(AK66,10,IF(AL66,11,IF(AM66,12,IF(AN66,13,IF(AO66,14,-1))))))))))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
@@ -4880,7 +4880,7 @@
         <v>258</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X75" s="9" t="s">
         <v>175</v>
@@ -4909,7 +4909,7 @@
         <v>133</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q76:Q89" si="3">IF(AB76,1,IF(AC76,2,IF(AD76,3,IF(AE76,4,IF(AF76,5,IF(AG76,6,IF(AH76,7,IF(AI76,8,IF(AJ76,9,IF(AK76,10,IF(AL76,11,IF(AM76,12,IF(AN76,13,IF(AO76,14,-1))))))))))))))</f>
         <v>1</v>
       </c>
       <c r="S76" s="9">
@@ -4942,7 +4942,7 @@
         <v>133</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S77" s="9">
@@ -4975,7 +4975,7 @@
         <v>133</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S78" s="9">
@@ -5019,7 +5019,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R79" s="9"/>
@@ -5072,7 +5072,7 @@
         <v>133</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S80" s="9">
@@ -5105,7 +5105,7 @@
         <v>133</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R81" s="9" t="s">
@@ -5144,7 +5144,7 @@
         <v>133</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S82" s="9">
@@ -5177,7 +5177,7 @@
         <v>133</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="V83" s="9" t="s">
@@ -5204,13 +5204,13 @@
         <v>173</v>
       </c>
       <c r="E84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>133</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V84" s="9" t="s">
@@ -5246,7 +5246,7 @@
         <v>133</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="V85" s="24" t="s">
@@ -5267,7 +5267,7 @@
         <v>295</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>133</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V86" s="9" t="s">
@@ -5289,7 +5289,7 @@
         <v>161</v>
       </c>
       <c r="Z86" s="9">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AA86" s="8" t="s">
         <v>216</v>
@@ -5315,7 +5315,7 @@
         <v>133</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="V87" s="9" t="s">
@@ -5336,10 +5336,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>310</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -5352,11 +5352,11 @@
         <v>2</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V88" s="9" t="s">
         <v>225</v>
@@ -5376,10 +5376,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S89" s="9">
@@ -5422,7 +5422,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO92">
-    <sortState ref="A2:AO87">
+    <sortState ref="A12:AO89">
       <sortCondition ref="A1:A92"/>
     </sortState>
   </autoFilter>
